--- a/Assets/Resources/WeaponData.xlsx
+++ b/Assets/Resources/WeaponData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hong Ki Tae\Unity-Biography_Of_Witch\Assets\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School File\Unity Development\P_Biography_Of_Witch\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1750B162-DA60-4900-B326-0C3DCE978AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5EBECD-DF2F-44EF-A376-3D9EC6844950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="-15855" windowWidth="21600" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -218,6 +218,10 @@
   </si>
   <si>
     <t xml:space="preserve">스태프라고 하기엔, 마력의 힘이 거의 느껴지지 않는 강철 덩어리다. 대신 둔탁함과 묵직함 하나는 확실해, 맞으면 상당히 아플 것 같다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SellGold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,19 +551,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="11" max="11" width="44.8984375" customWidth="1"/>
+    <col min="12" max="12" width="44.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,10 +589,13 @@
         <v>16</v>
       </c>
       <c r="I1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -613,11 +620,14 @@
       <c r="H2">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -642,11 +652,14 @@
       <c r="H3">
         <v>15</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -671,11 +684,14 @@
       <c r="H4">
         <v>0</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -700,11 +716,14 @@
       <c r="H5">
         <v>10</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -729,11 +748,14 @@
       <c r="H6">
         <v>10</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -758,11 +780,14 @@
       <c r="H7">
         <v>10</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -787,11 +812,14 @@
       <c r="H8">
         <v>10</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -816,11 +844,14 @@
       <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -842,8 +873,11 @@
       <c r="H10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -865,8 +899,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -888,8 +925,11 @@
       <c r="H12">
         <v>15</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -911,8 +951,11 @@
       <c r="H13">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -934,8 +977,11 @@
       <c r="H14">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -957,8 +1003,11 @@
       <c r="H15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="I15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -980,8 +1029,11 @@
       <c r="H16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1003,8 +1055,11 @@
       <c r="H17">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1026,8 +1081,11 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1049,8 +1107,11 @@
       <c r="H19">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1072,8 +1133,11 @@
       <c r="H20">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1095,8 +1159,11 @@
       <c r="H21">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1118,8 +1185,11 @@
       <c r="H22">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="I22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1140,6 +1210,9 @@
       </c>
       <c r="H23">
         <v>20</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/WeaponData.xlsx
+++ b/Assets/Resources/WeaponData.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School File\Unity Development\P_Biography_Of_Witch\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5EBECD-DF2F-44EF-A376-3D9EC6844950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7159C719-0A98-4184-AE48-521095137043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="63">
   <si>
     <t>Index</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EquipLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>마녀의 허름한 지팡이</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -222,6 +219,46 @@
   </si>
   <si>
     <t>SellGold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Top</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bottom</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Glove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shoes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Necklace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Earrings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,19 +588,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="12" max="12" width="44.875" customWidth="1"/>
+    <col min="11" max="11" width="44.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,644 +611,575 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H2">
-        <v>10</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D3">
+      <c r="C4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>15</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
       <c r="F4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>8</v>
       </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H5">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" t="s">
         <v>9</v>
       </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8">
         <v>2</v>
       </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-      <c r="J8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" t="s">
         <v>12</v>
       </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
       <c r="F9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>1</v>
-      </c>
-      <c r="J9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
         <v>26</v>
       </c>
-      <c r="D10">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>15</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>7</v>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>8</v>
       </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
       <c r="F12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G12">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H12">
-        <v>15</v>
-      </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
         <v>9</v>
       </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
       <c r="F13">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H13">
-        <v>15</v>
-      </c>
-      <c r="I13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G14">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H14">
-        <v>15</v>
-      </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
         <v>11</v>
       </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
       <c r="F15">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16">
-        <v>10</v>
-      </c>
-      <c r="E16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
         <v>12</v>
       </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
       <c r="F16">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G16">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="H16">
-        <v>15</v>
-      </c>
-      <c r="I16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D17">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
         <v>15</v>
       </c>
-      <c r="E17" t="s">
-        <v>7</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
       <c r="G17">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18">
         <v>15</v>
       </c>
-      <c r="E18" t="s">
-        <v>7</v>
-      </c>
       <c r="F18">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
         <v>8</v>
       </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
       <c r="F19">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G19">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H19">
-        <v>20</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20">
-        <v>15</v>
-      </c>
-      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
         <v>9</v>
       </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
       <c r="F20">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H20">
-        <v>20</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>10</v>
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G21">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>20</v>
-      </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22">
-        <v>15</v>
-      </c>
-      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
         <v>11</v>
       </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
       <c r="F22">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G22">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H22">
-        <v>20</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23">
-        <v>15</v>
-      </c>
-      <c r="E23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
         <v>12</v>
       </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
       <c r="F23">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="G23">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H23">
-        <v>20</v>
-      </c>
-      <c r="I23">
         <v>1</v>
       </c>
     </row>
@@ -1219,4 +1187,101 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7104F356-5229-4376-9EEA-A257A5DFA23B}">
+  <dimension ref="B3:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>